--- a/menu.xlsx
+++ b/menu.xlsx
@@ -40,43 +40,43 @@
     <t>辣椒炒肉</t>
   </si>
   <si>
-    <t>/img/辣椒炒肉.png</t>
+    <t>/weiwei/img/辣椒炒肉.png</t>
   </si>
   <si>
     <t>西红柿炒鸡蛋</t>
   </si>
   <si>
-    <t>/img/番茄炒蛋.png</t>
+    <t>/weiwei/img/番茄炒蛋.png</t>
   </si>
   <si>
     <t>玉米淮山</t>
   </si>
   <si>
-    <t>/img/玉米淮山.png</t>
+    <t>/weiwei/img/玉米淮山.png</t>
   </si>
   <si>
     <t>爆炒牛肉</t>
   </si>
   <si>
-    <t>/img/爆炒牛肉.png</t>
+    <t>/weiwei/img/爆炒牛肉.png</t>
   </si>
   <si>
     <t>小炒上海青</t>
   </si>
   <si>
-    <t>/img/上海青.png</t>
+    <t>/weiwei/img/上海青.png</t>
   </si>
   <si>
     <t>啤酒鸭</t>
   </si>
   <si>
-    <t>/img/啤酒鸭.png</t>
+    <t>/weiwei/img/啤酒鸭.png</t>
   </si>
   <si>
     <t>红烧猪蹄</t>
   </si>
   <si>
-    <t>/img/红烧猪蹄.png</t>
+    <t>/weiwei/img/红烧猪蹄.png</t>
   </si>
 </sst>
 </file>
@@ -1010,13 +1010,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
